--- a/汽柴煤油2.0/eta/新加坡10ppm柴油裂解_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/新加坡10ppm柴油裂解_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>21.8</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>22.8</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="C4" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>19.6</v>
       </c>
       <c r="C5" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +651,7 @@
         <v>12.9</v>
       </c>
       <c r="C17" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -716,7 +716,7 @@
         <v>16.9</v>
       </c>
       <c r="C22" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="23">
